--- a/Excel_Files/Stats_Populations/1.5_cm/686_nm_v.xlsx
+++ b/Excel_Files/Stats_Populations/1.5_cm/686_nm_v.xlsx
@@ -459,28 +459,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.0002309392409121635</v>
+        <v>0.001991421991565378</v>
       </c>
       <c r="D2">
-        <v>0.0004249947616392211</v>
+        <v>0.002179088657040316</v>
       </c>
       <c r="E2">
-        <v>0.0002602719817349507</v>
+        <v>0.002006500098809511</v>
       </c>
       <c r="F2">
-        <v>0.0002358049628205837</v>
+        <v>0.001924674673808527</v>
       </c>
       <c r="G2">
-        <v>0.000130223913581799</v>
+        <v>0.001781845891965233</v>
       </c>
       <c r="H2">
-        <v>0.0004249947616392211</v>
+        <v>0.002179088657040316</v>
       </c>
       <c r="I2">
-        <v>0.0004425956484116972</v>
+        <v>0.002629375413274739</v>
       </c>
       <c r="J2">
-        <v>0.0005810778356249612</v>
+        <v>0.002672745338615437</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -491,28 +491,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.000112332188004902</v>
+        <v>0.001681712562145293</v>
       </c>
       <c r="D3">
-        <v>0.0003257395958916814</v>
+        <v>0.00195618100067586</v>
       </c>
       <c r="E3">
-        <v>0.0001719681546637833</v>
+        <v>0.001829663058626354</v>
       </c>
       <c r="F3">
-        <v>8.69431611658144E-05</v>
+        <v>0.001508604210674438</v>
       </c>
       <c r="G3">
-        <v>8.143458965339465E-05</v>
+        <v>0.001441239460358386</v>
       </c>
       <c r="H3">
-        <v>0.0001811705969923793</v>
+        <v>0.001822558885503315</v>
       </c>
       <c r="I3">
-        <v>0.0001882813002386454</v>
+        <v>0.001976462580815498</v>
       </c>
       <c r="J3">
-        <v>0.0001032485023542453</v>
+        <v>0.001639203648758423</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>5.903785054115279E-05</v>
+        <v>0.001293360158455248</v>
       </c>
       <c r="D4">
-        <v>0.0001432090079832966</v>
+        <v>0.001708978231472417</v>
       </c>
       <c r="E4">
-        <v>0.0001096235147044383</v>
+        <v>0.001572685867466752</v>
       </c>
       <c r="F4">
-        <v>3.040990576170122E-05</v>
+        <v>0.0009642513830883056</v>
       </c>
       <c r="G4">
-        <v>2.641847459836649E-05</v>
+        <v>0.000902882633582233</v>
       </c>
       <c r="H4">
-        <v>7.726825563219386E-05</v>
+        <v>0.001424020732633996</v>
       </c>
       <c r="I4">
-        <v>0.0001226463532670197</v>
+        <v>0.001730512200980097</v>
       </c>
       <c r="J4">
-        <v>3.281535333539027E-05</v>
+        <v>0.0009882988564637102</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -555,28 +555,28 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>2.300401698143738E-06</v>
+        <v>0.0002715143681261065</v>
       </c>
       <c r="D5">
-        <v>3.268586161741076E-06</v>
+        <v>0.0003310427339611893</v>
       </c>
       <c r="E5">
-        <v>2.372453773921665E-06</v>
+        <v>0.0002795018194794103</v>
       </c>
       <c r="F5">
-        <v>1.007874840847235E-06</v>
+        <v>0.0001874400456673012</v>
       </c>
       <c r="G5">
-        <v>5.681581091470229E-07</v>
+        <v>0.0001395283112401002</v>
       </c>
       <c r="H5">
-        <v>1.218561802960971E-06</v>
+        <v>0.0002056759366817797</v>
       </c>
       <c r="I5">
-        <v>2.120717700861596E-06</v>
+        <v>0.0002661948727321276</v>
       </c>
       <c r="J5">
-        <v>2.081342330907192E-06</v>
+        <v>0.0002487345230361857</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -587,28 +587,28 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>1.317136358655305E-06</v>
+        <v>0.0002117598497933932</v>
       </c>
       <c r="D6">
-        <v>1.077228509407864E-06</v>
+        <v>0.0002009682985198343</v>
       </c>
       <c r="E6">
-        <v>9.416915492764939E-07</v>
+        <v>0.0001772241599860522</v>
       </c>
       <c r="F6">
-        <v>3.624942224305535E-07</v>
+        <v>0.0001143655120462179</v>
       </c>
       <c r="G6">
-        <v>2.179115449620833E-07</v>
+        <v>8.824488964963065E-05</v>
       </c>
       <c r="H6">
-        <v>3.723344540678026E-07</v>
+        <v>0.0001173425119190727</v>
       </c>
       <c r="I6">
-        <v>1.273217402207721E-06</v>
+        <v>0.0002061324292280206</v>
       </c>
       <c r="J6">
-        <v>1.184913064162967E-06</v>
+        <v>0.0001879042539229908</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,28 +619,28 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>6.766662369141383E-07</v>
+        <v>0.0001489769151960976</v>
       </c>
       <c r="D7">
-        <v>3.726682168772675E-07</v>
+        <v>0.0001163171916849393</v>
       </c>
       <c r="E7">
-        <v>2.576236820294142E-07</v>
+        <v>9.464901314754671E-05</v>
       </c>
       <c r="F7">
-        <v>8.108217606321517E-08</v>
+        <v>5.376743740601173E-05</v>
       </c>
       <c r="G7">
-        <v>1.134125954961433E-07</v>
+        <v>6.536410117897699E-05</v>
       </c>
       <c r="H7">
-        <v>8.108217606321517E-08</v>
+        <v>5.376743740601173E-05</v>
       </c>
       <c r="I7">
-        <v>6.878298109578027E-07</v>
+        <v>0.0001521675148791004</v>
       </c>
       <c r="J7">
-        <v>5.717432883348401E-07</v>
+        <v>0.0001334016115145574</v>
       </c>
     </row>
   </sheetData>
